--- a/Unit 8/Unit 8 Examples - Workbooks-20231019/Exa 8.2B.xlsx
+++ b/Unit 8/Unit 8 Examples - Workbooks-20231019/Exa 8.2B.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indra Dewaji\Documents\GitHub\researchmethodology\Unit 8\Unit 8 Examples - Workbooks-20231019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BBC53C-8E15-4986-870F-E51F9CDE56A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -60,11 +79,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -78,6 +97,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -108,10 +128,10 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -132,13 +152,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,7 +204,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -210,6 +238,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,9 +273,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,14 +449,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -442,7 +474,7 @@
         <v>3.7090000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -460,7 +492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -475,7 +507,7 @@
         <v>5.3411999999999988</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -490,7 +522,7 @@
         <v>2.5356026132351492</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -500,9 +532,12 @@
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="6">
+        <f>MEDIAN(B2:B51)</f>
+        <v>5.6419999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -512,9 +547,12 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="6">
+        <f>QUARTILE(B2:B51,1)</f>
+        <v>3.7482500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -524,9 +562,12 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="6">
+        <f>QUARTILE(B2:B51,3)</f>
+        <v>7.0327500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -536,9 +577,12 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="6">
+        <f>F8-F7</f>
+        <v>3.2845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -546,7 +590,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -554,7 +598,7 @@
         <v>6.8810000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -562,7 +606,7 @@
         <v>7.2649999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -570,7 +614,7 @@
         <v>3.4769999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -578,7 +622,7 @@
         <v>3.7549999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -586,7 +630,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -594,7 +638,7 @@
         <v>7.032</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -602,7 +646,7 @@
         <v>9.0519999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -610,7 +654,7 @@
         <v>10.061999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -618,7 +662,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -626,7 +670,7 @@
         <v>6.4489999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -634,7 +678,7 @@
         <v>9.0190000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -642,7 +686,7 @@
         <v>-1.7150000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -660,7 +704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -675,7 +719,7 @@
         <v>3.709960000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -690,7 +734,7 @@
         <v>2.7690419986349206</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -698,7 +742,7 @@
         <v>2.1280000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -706,7 +750,7 @@
         <v>6.968</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -714,7 +758,7 @@
         <v>4.8529999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -722,7 +766,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
@@ -730,7 +774,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -738,7 +782,7 @@
         <v>3.746</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -746,7 +790,7 @@
         <v>7.0330000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -754,7 +798,7 @@
         <v>5.0330000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -762,7 +806,7 @@
         <v>5.569</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -770,7 +814,7 @@
         <v>6.7119999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -778,7 +822,7 @@
         <v>3.6629999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -786,7 +830,7 @@
         <v>2.7410000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -794,7 +838,7 @@
         <v>6.2560000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -802,7 +846,7 @@
         <v>5.3490000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -810,7 +854,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -818,7 +862,7 @@
         <v>5.4450000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -826,7 +870,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -834,7 +878,7 @@
         <v>3.613</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -842,7 +886,7 @@
         <v>7.5679999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -850,7 +894,7 @@
         <v>5.8609999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -858,7 +902,7 @@
         <v>4.157</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -866,7 +910,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -874,7 +918,7 @@
         <v>4.4409999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -882,7 +926,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -890,7 +934,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -898,7 +942,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
@@ -906,7 +950,7 @@
         <v>-1.087</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
@@ -914,7 +958,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -922,7 +966,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
@@ -930,7 +974,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -938,7 +982,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
@@ -946,7 +990,7 @@
         <v>3.089</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -954,7 +998,7 @@
         <v>4.008</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -962,7 +1006,7 @@
         <v>4.5510000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
@@ -970,7 +1014,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
@@ -978,7 +1022,7 @@
         <v>3.4129999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
@@ -986,7 +1030,7 @@
         <v>-4.1479999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -994,7 +1038,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +1046,7 @@
         <v>2.8650000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -1010,7 +1054,7 @@
         <v>4.3689999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1062,7 @@
         <v>6.3369999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
@@ -1026,7 +1070,7 @@
         <v>6.3079999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -1034,7 +1078,7 @@
         <v>3.4940000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
@@ -1042,7 +1086,7 @@
         <v>10.539</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1094,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
@@ -1058,7 +1102,7 @@
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +1110,7 @@
         <v>5.4850000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1118,7 @@
         <v>-1.8939999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1126,7 @@
         <v>8.016</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1134,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
@@ -1098,7 +1142,7 @@
         <v>3.8820000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1150,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
@@ -1114,7 +1158,7 @@
         <v>7.7270000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -1122,7 +1166,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
@@ -1130,7 +1174,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
@@ -1138,7 +1182,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1190,7 @@
         <v>4.9850000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
@@ -1154,7 +1198,7 @@
         <v>5.1589999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1206,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1214,7 @@
         <v>4.9340000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -1178,7 +1222,7 @@
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
@@ -1186,7 +1230,7 @@
         <v>5.5979999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1238,7 @@
         <v>2.1619999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
@@ -1202,7 +1246,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
@@ -1210,7 +1254,7 @@
         <v>7.0460000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1262,7 @@
         <v>1.7569999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
@@ -1226,7 +1270,7 @@
         <v>1.8480000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
@@ -1234,7 +1278,7 @@
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
@@ -1242,7 +1286,7 @@
         <v>2.145</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -1250,7 +1294,7 @@
         <v>8.4350000000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
@@ -1258,7 +1302,7 @@
         <v>6.0990000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
@@ -1266,7 +1310,7 @@
         <v>3.972</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
@@ -1274,7 +1318,7 @@
         <v>2.4089999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
@@ -1282,7 +1326,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1334,7 @@
         <v>7.0129999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
@@ -1306,12 +1350,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1320,12 +1364,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
